--- a/src/api/data/首页.xlsx
+++ b/src/api/data/首页.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="首页" sheetId="1" r:id="rId4"/>
+    <sheet name="首页" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>zh</t>
   </si>
@@ -71,9 +78,6 @@
     <t>关于鸿昇</t>
   </si>
   <si>
-    <t>1984年，鸿昇集团在香港成立。我们致力于电子、制造、消费、实业以及烘焙和甜点行业。作为公认的连通及线束行业先锋，鸿昇集团提供最全面的服务以及最具竞争力的价格。鸿昇集团的产品以其质量、扩展性、易用性以及创新型技术而广受欢迎。我们仔细聆听客户心声并与其密切合作确保提供上乘的产品和服务满足其需求。</t>
-  </si>
-  <si>
     <t>诚信厂商</t>
   </si>
   <si>
@@ -93,23 +97,187 @@
   </si>
   <si>
     <t>电子、线束加工类</t>
+  </si>
+  <si>
+    <t>堅持</t>
+  </si>
+  <si>
+    <t>品質</t>
+  </si>
+  <si>
+    <t>產品及服務</t>
+  </si>
+  <si>
+    <t>From the year to date</t>
+  </si>
+  <si>
+    <t>Insist</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Products and services</t>
+  </si>
+  <si>
+    <t>電子產品、標籤、烘培能力</t>
+  </si>
+  <si>
+    <t>這是一段簡述，現時採用占位文案代替</t>
+  </si>
+  <si>
+    <t>This is a brief account. Currently, placeholder copy is used instead.</t>
+  </si>
+  <si>
+    <t>產品線</t>
+  </si>
+  <si>
+    <t>線束裝配及印刷電路板組件</t>
+  </si>
+  <si>
+    <t>紙張切割</t>
+  </si>
+  <si>
+    <t>product line</t>
+  </si>
+  <si>
+    <t>原始設計製造商及項目早期介入</t>
+  </si>
+  <si>
+    <t>售後服務</t>
+  </si>
+  <si>
+    <t>供應鏈管理</t>
+  </si>
+  <si>
+    <t>烘培及甜點</t>
+  </si>
+  <si>
+    <t>關於鴻昇</t>
+  </si>
+  <si>
+    <t>After-sale service</t>
+  </si>
+  <si>
+    <t>Supply chain management</t>
+  </si>
+  <si>
+    <t>Baking and dessert</t>
+  </si>
+  <si>
+    <t>About Hongsheng</t>
+  </si>
+  <si>
+    <t>誠信廠商</t>
+  </si>
+  <si>
+    <t>供應國家和地區</t>
+  </si>
+  <si>
+    <t>成功企業選擇</t>
+  </si>
+  <si>
+    <t>出貨總量</t>
+  </si>
+  <si>
+    <t>更深入的瞭解我們</t>
+  </si>
+  <si>
+    <t>食品、飲料類</t>
+  </si>
+  <si>
+    <t>電子、線束加工類</t>
+  </si>
+  <si>
+    <t>Trustworthiness manufacturer</t>
+  </si>
+  <si>
+    <t>Supply of countries and regions</t>
+  </si>
+  <si>
+    <t>Successful enterprise selection</t>
+  </si>
+  <si>
+    <t>Total shipments</t>
+  </si>
+  <si>
+    <t>Food and beverage</t>
+  </si>
+  <si>
+    <t>1984</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic components, Labels, Baking ability</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年，鸿昇集团在香港成立。我们致力于电子、制造、消费、实业以及烘焙和甜点行业。作为公认的连接器及线束行业先锋，鸿昇集团提供最全面的服务以及最具竞争力的价格。鸿昇集团的产品以其质量、扩展性、易用性以及创新型技术而广受欢迎。我们仔细聆听客户心声并与其密切合作确保提供上乘的产品和服务满足其需求。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，鴻昇集團在香港成立。我們致力於電子、製造、消費、實業以及烘焙和甜點行業。作為公認的連接器及線束行業先鋒，鴻昇集團提供最全面的服務以及最具競爭力的價格。鴻昇集團的產品以其質量、擴展性、易用性以及創新型科技而廣受歡迎。我們仔細聆聽客戶心聲並與其密切合作確保提供上乘的產品和服務滿足其需求。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hung Shang Group was founded in Hong Kong by Mr. K.C Wong and Mr. K.F Yuen in 1984,  We are committed to Electronic Components distributing, Manufacturing, consumption, industry, baking and dessert industry. As recognized as the pioneer of connectivity and wire harness industry, Hongsheng group provides the most comprehensive services and the most competitive price. Our products are widely welcomed for its quality, expansibility, ease of use and innovative technology. We carefully listen to the customers' minds and cooperate closely with them to ensure that the best products and services meet their needs.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiring harness and PCB assembly</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Further more about us</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric Components and wiring harness processing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODM and Front-Design-in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper slitting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -117,16 +285,33 @@
       <sz val="6"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,91 +491,152 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -516,7 +762,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -525,7 +771,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -534,7 +780,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -608,7 +854,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -616,7 +862,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -635,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +1015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +1093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +1119,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,9 +1132,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -903,7 +1155,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -911,7 +1163,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -930,7 +1182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,9 +1429,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1193,7 +1451,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1212,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1450,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,361 +1721,491 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="8.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="8.85" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7">
+        <v>1984</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="6">
+    <row r="16" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="6">
+    <row r="17" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="6">
+    <row r="18" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="6">
+    <row r="19" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" ht="94" customHeight="1">
-      <c r="A25" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
+    <row r="25" spans="1:6" ht="93.95" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+    <row r="26" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+    <row r="27" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
+    <row r="29" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="11"/>
@@ -1826,8 +2214,9 @@
       <c r="F33" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/api/data/首页.xlsx
+++ b/src/api/data/首页.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -215,25 +210,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1984</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年，鸿昇集团在香港成立。我们致力于电子、制造、消费、实业以及烘焙和甜点行业。作为公认的连接器及线束行业先锋，鸿昇集团提供最全面的服务以及最具竞争力的价格。鸿昇集团的产品以其质量、扩展性、易用性以及创新型技术而广受欢迎。我们仔细聆听客户心声并与其密切合作确保提供上乘的产品和服务满足其需求。</t>
-    </r>
+    <t>Wiring harness and PCB assembly</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1984</t>
-    </r>
+    <t>Further more about us</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric Components and wiring harness processing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODM and Front-Design-in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper slitting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -242,39 +238,374 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年，鴻昇集團在香港成立。我們致力於電子、製造、消費、實業以及烘焙和甜點行業。作為公認的連接器及線束行業先鋒，鴻昇集團提供最全面的服務以及最具競爭力的價格。鴻昇集團的產品以其質量、擴展性、易用性以及創新型科技而廣受歡迎。我們仔細聆聽客戶心聲並與其密切合作確保提供上乘的產品和服務滿足其需求。</t>
+      <t>鴻昇集團是袁炯輝先生和黃國忠先生于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>1984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年創立于香港。成立以來，鴻昇集團一直秉承</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>業精於勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的社訓，致力於電子、製造、消費、工業以及烘焙糕點行業的經營和服務。并先後成為美國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Molex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、日本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>JST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、英國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Essentra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、美國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avery Dennison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、美國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">L-com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和德國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tesa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品牌在大中華區的授權經銷商。尤其是連接器及線束行業，作為國內外公認的行業先驅，鴻昇集團以為客戶提供高質量、可擴展性、易用性的產品和創新技術而廣受行業客戶好評。我們在努力提高產品質量水平和服務的同時，也認真聽取客戶的意見，並與客戶緊密合作，確保我們能夠提供上乘的產品和服務，以滿足廣大客戶的需求。鴻昇集團同樣致力於培養高素質有能力的員工，力求全體同仁以高效熱忱的工作態度為您提供全天候的專業服務。</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸿昇集团是袁炯辉先生和黄国忠先生于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>1984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年创立于香港。成立以来，鸿昇集团一直秉承</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业精于勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的社训，致力于电子、制造、消费、工业以及烘焙糕点行业的经营和服务。并先后成为美国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Molex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、日本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>JST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、英国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Essentra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、美国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avery Dennison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、美国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">L-com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和德国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tesa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品牌在大中华区的授权经销商。尤其是连接器和线束行业，作为国内外公认的行业先驱，鸿昇集团以为客户提供高质量、可扩展性、易用性的产品和创新技术而广受行业客户好评。我们在努力提高产品质量水平和服务的同时，也认真听取客户的意见，并与客户紧密合作，确保我们能够提供上乘的产品和服务，以满足广大客户的需求。鸿昇集团同样致力于培养高素质有能力的员工，力求全体同仁以高效热忱的工作态度为您提供全天候的专业服务。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Hung Shang Group was founded in Hong Kong by Mr. K.C Wong and Mr. K.F Yuen in 1984,  We are committed to Electronic Components distributing, Manufacturing, consumption, industry, baking and dessert industry. As recognized as the pioneer of connectivity and wire harness industry, Hongsheng group provides the most comprehensive services and the most competitive price. Our products are widely welcomed for its quality, expansibility, ease of use and innovative technology. We carefully listen to the customers' minds and cooperate closely with them to ensure that the best products and services meet their needs.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wiring harness and PCB assembly</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Further more about us</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric Components and wiring harness processing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODM and Front-Design-in</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper slitting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -308,10 +639,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,7 +825,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -548,6 +878,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1739,21 +2075,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="8.85" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="62.42578125" style="1" customWidth="1"/>
     <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1919,7 +2253,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
@@ -1947,7 +2281,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -1975,7 +2309,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -2093,15 +2427,15 @@
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="93.95" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>64</v>
+    <row r="25" spans="1:6" ht="127.5" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
@@ -2171,7 +2505,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
@@ -2199,7 +2533,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>

--- a/src/api/data/首页.xlsx
+++ b/src/api/data/首页.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B849ED-A9F0-40E6-A0CB-28ABF8BD1A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -151,9 +157,6 @@
     <t>烘培及甜點</t>
   </si>
   <si>
-    <t>關於鴻昇</t>
-  </si>
-  <si>
     <t>After-sale service</t>
   </si>
   <si>
@@ -161,9 +164,6 @@
   </si>
   <si>
     <t>Baking and dessert</t>
-  </si>
-  <si>
-    <t>About Hongsheng</t>
   </si>
   <si>
     <t>誠信廠商</t>
@@ -227,190 +227,6 @@
   </si>
   <si>
     <t>Paper slitting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鴻昇集團是袁炯輝先生和黃國忠先生于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>1984</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年創立于香港。成立以來，鴻昇集團一直秉承</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>業精於勤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的社訓，致力於電子、製造、消費、工業以及烘焙糕點行業的經營和服務。并先後成為美國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Molex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、日本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>JST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、英國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Essentra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、美國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Avery Dennison</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、美國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">L-com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和德國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tesa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>品牌在大中華區的授權經銷商。尤其是連接器及線束行業，作為國內外公認的行業先驅，鴻昇集團以為客戶提供高質量、可擴展性、易用性的產品和創新技術而廣受行業客戶好評。我們在努力提高產品質量水平和服務的同時，也認真聽取客戶的意見，並與客戶緊密合作，確保我們能夠提供上乘的產品和服務，以滿足廣大客戶的需求。鴻昇集團同樣致力於培養高素質有能力的員工，力求全體同仁以高效熱忱的工作態度為您提供全天候的專業服務。</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -598,15 +414,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Hung Shang Group was founded in Hong Kong by Mr. K.C Wong and Mr. K.F Yuen in 1984,  We are committed to Electronic Components distributing, Manufacturing, consumption, industry, baking and dessert industry. As recognized as the pioneer of connectivity and wire harness industry, Hongsheng group provides the most comprehensive services and the most competitive price. Our products are widely welcomed for its quality, expansibility, ease of use and innovative technology. We carefully listen to the customers' minds and cooperate closely with them to ensure that the best products and services meet their needs.</t>
+    <t>About Hung Shang</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hung Shang Group was founded in Hong Kong by Mr. K.C Wong and Mr. K.F Yuen in 1984,  We are committed to Electronic Components distributing, Manufacturing, consumption, industry, baking and dessert industry. As recognized as the pioneer of connectivity and wire harness industry, Hung Shang Group provides the most comprehensive services and the most competitive price. Our products are widely welcomed for its quality, expansibility, ease of use and innovative technology. We carefully listen to the customers' minds and cooperate closely with them to ensure that the best products and services meet their needs.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>關於鸿昇</t>
+  </si>
+  <si>
+    <t>鸿昇集團是袁炯輝先生和黃國忠先生于1984年創立于香港。成立以來，鸿昇集團一直秉承“業精於勤”的社訓，致力於電子、製造、消費、工業以及烘焙糕點行業的經營和服務。并先後成為美國Molex、日本JST、英國Essentra、美國Avery Dennison、美國L-com 和德國Tesa品牌在大中華區的授權經銷商。尤其是連接器及線束行業，作為國內外公認的行業先驅，鸿昇集團以為客戶提供高質量、可擴展性、易用性的產品和創新技術而廣受行業客戶好評。我們在努力提高產品質量水平和服務的同時，也認真聽取客戶的意見，並與客戶緊密合作，確保我們能夠提供上乘的產品和服務，以滿足廣大客戶的需求。鸿昇集團同樣致力於培養高素質有能力的員工，力求全體同仁以高效熱忱的工作態度為您提供全天候的專業服務。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -642,6 +468,13 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -825,7 +658,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -880,10 +713,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2075,23 +1911,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="8.85" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="8.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="62.42578125" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="62.453125" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +1941,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2113,13 +1949,13 @@
         <v>1984</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +1969,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +1983,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +1997,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2011,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1">
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2025,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1">
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2197,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2053,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.95" customHeight="1">
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2067,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="15.95" customHeight="1">
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -2245,7 +2081,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="15.95" customHeight="1">
+    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -2253,13 +2089,13 @@
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="15.95" customHeight="1">
+    <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2109,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="15.95" customHeight="1">
+    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2281,13 +2117,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="15.95" customHeight="1">
+    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +2137,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="15.95" customHeight="1">
+    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2145,13 @@
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="15.95" customHeight="1">
+    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2165,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="15.95" customHeight="1">
+    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2337,13 +2173,13 @@
         <v>42</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -2357,7 +2193,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -2365,13 +2201,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2385,7 +2221,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="15.95" customHeight="1">
+    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -2393,13 +2229,13 @@
         <v>44</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="15.95" customHeight="1">
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -2413,133 +2249,133 @@
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="15.95" customHeight="1">
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="127.5" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="15.95" customHeight="1">
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="15.95" customHeight="1">
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="15.95" customHeight="1">
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="15.95" customHeight="1">
+    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="15.95" customHeight="1">
+    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="15.95" customHeight="1">
+    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="15.95" customHeight="1">
+    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="11"/>
